--- a/TimeSlots.xlsx
+++ b/TimeSlots.xlsx
@@ -5,23 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ScheduleMeWorkspace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ScheduleMeWorkspaceData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B76193-598E-4D50-A132-A8A2164C8E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40477D1-0F73-4CD6-B96C-F8FC42EE087C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{659A8F83-3F3A-4BC0-9E67-3D9989C3B7CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="Dates">[1]Utils!$C$1:$C$4</definedName>
-    <definedName name="Functions">[2]Utils!$A$1:$A$6</definedName>
+    <definedName name="Dates">#REF!</definedName>
+    <definedName name="Functions">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>Cleaner</t>
   </si>
@@ -62,6 +58,12 @@
   </si>
   <si>
     <t xml:space="preserve">Acolyte   Acolyte MAS MAS Reader1 Reader2 EMHC  </t>
+  </si>
+  <si>
+    <t>Reader1</t>
+  </si>
+  <si>
+    <t>Acolyte EMHC MAS Reader1 Reader2</t>
   </si>
 </sst>
 </file>
@@ -132,98 +134,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Schedules"/>
-      <sheetName val="TimeSlots"/>
-      <sheetName val="Utils"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="C1">
-            <v>45220.25</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="C2">
-            <v>45220.729166666664</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="C3">
-            <v>45221.354166666664</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>45221.416666666664</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Schedules"/>
-      <sheetName val="TimeSlots"/>
-      <sheetName val="Utils"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>Acolyte</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Reader1</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Reader2</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>MAS</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>EMHC</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Cleaner</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -526,12 +436,12 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="52.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
@@ -628,28 +538,28 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D12" s="2"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="5"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="4"/>
+      <c r="A12" s="1">
+        <v>45300.416666666664</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D13" s="2"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="5"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="4"/>
+      <c r="A13" s="1">
+        <v>45307.416666666664</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D14" s="2"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="5"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="4"/>
+      <c r="A14" s="1">
+        <v>45276.416666666664</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D15" s="2"/>
@@ -722,10 +632,10 @@
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J12:J21" xr:uid="{7A75EC7F-8904-4A29-BA16-2F9C032B4234}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J15:J21" xr:uid="{7A75EC7F-8904-4A29-BA16-2F9C032B4234}">
       <formula1>Dates</formula1>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E20:E21 E12:E14" xr:uid="{BAEDF394-DF56-47F3-83C5-E0F5397C32C3}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E20:E21" xr:uid="{BAEDF394-DF56-47F3-83C5-E0F5397C32C3}">
       <formula1>10</formula1>
       <formula2>10</formula2>
     </dataValidation>

--- a/TimeSlots.xlsx
+++ b/TimeSlots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ScheduleMeWorkspaceData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40477D1-0F73-4CD6-B96C-F8FC42EE087C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031EB862-3E6F-4523-B272-34C6E0F61354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{659A8F83-3F3A-4BC0-9E67-3D9989C3B7CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{659A8F83-3F3A-4BC0-9E67-3D9989C3B7CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
   <si>
     <t>Cleaner</t>
   </si>
@@ -64,6 +64,18 @@
   </si>
   <si>
     <t>Acolyte EMHC MAS Reader1 Reader2</t>
+  </si>
+  <si>
+    <t>Acolyte Reader1</t>
+  </si>
+  <si>
+    <t>Reader1 MAS</t>
+  </si>
+  <si>
+    <t>Acolyte Reader1 MAS</t>
+  </si>
+  <si>
+    <t>Acolyte Reader1 MAS Reader2</t>
   </si>
 </sst>
 </file>
@@ -73,18 +85,10 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -107,20 +111,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -433,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40CACF2B-DEF2-482B-B8A4-01CC748DD523}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,7 +447,7 @@
     <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>45221.354166666664</v>
       </c>
@@ -457,7 +455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45221.416666666664</v>
       </c>
@@ -465,7 +463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45228.354166666664</v>
       </c>
@@ -473,7 +471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45228.416666666664</v>
       </c>
@@ -481,7 +479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45235.354166666664</v>
       </c>
@@ -489,7 +487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45235.416666666664</v>
       </c>
@@ -497,7 +495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45265.416666666664</v>
       </c>
@@ -505,7 +503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45272.416666666664</v>
       </c>
@@ -513,7 +511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45279.416666666664</v>
       </c>
@@ -521,7 +519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45286.416666666664</v>
       </c>
@@ -529,7 +527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45293.416666666664</v>
       </c>
@@ -537,7 +535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45300.416666666664</v>
       </c>
@@ -545,7 +543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45307.416666666664</v>
       </c>
@@ -553,7 +551,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45276.416666666664</v>
       </c>
@@ -561,84 +559,115 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D15" s="2"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="5"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D16" s="2"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="5"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D17" s="2"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="5"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D18" s="2"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="5"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D19" s="2"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="5"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D20" s="2"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="5"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D21" s="2"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="5"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45312.416666666664</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45318.416666666664</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>45325.416666666664</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>45332.416666666664</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>45339.416666666664</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>45349.416666666664</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>45353.416666666664</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>45363.416666666664</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>45373.416666666664</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>45388.416666666664</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>45389.354166666664</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>45396.416666666664</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>45396.354166666664</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J15:J21" xr:uid="{7A75EC7F-8904-4A29-BA16-2F9C032B4234}">
-      <formula1>Dates</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E20:E21" xr:uid="{BAEDF394-DF56-47F3-83C5-E0F5397C32C3}">
-      <formula1>10</formula1>
-      <formula2>10</formula2>
-    </dataValidation>
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5" xr:uid="{2F6D5B08-F73D-482A-8357-BE3AF89FA3CD}">
       <formula1>Functions</formula1>
     </dataValidation>

--- a/TimeSlots.xlsx
+++ b/TimeSlots.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ScheduleMeWorkspaceData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031EB862-3E6F-4523-B272-34C6E0F61354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3966D9F-17E8-4B19-BA73-C2E4E6CC588A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{659A8F83-3F3A-4BC0-9E67-3D9989C3B7CC}"/>
   </bookViews>
@@ -40,42 +40,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="5">
   <si>
-    <t>Cleaner</t>
+    <t xml:space="preserve">Cleaner </t>
   </si>
   <si>
-    <t xml:space="preserve">Acolyte Acolyte MAS MAS Reader1 Reader2 EMHC EMHC </t>
+    <t xml:space="preserve">Acolyte   Acolyte MAS MAS Reader1 Reader2 EMHC </t>
   </si>
   <si>
-    <t xml:space="preserve">Acolyte  MAS  Reader1 Reader2 EMHC EMHC </t>
+    <t xml:space="preserve">Acolyte  Acolyte MAS  MAS Reader1 Reader2 EMHC EMHC Choir </t>
   </si>
   <si>
-    <t xml:space="preserve">Acolyte  MAS  Reader1 Reader2  EMHC </t>
+    <t xml:space="preserve">Acolyte  Acolyte MAS  MAS Reader1 Reader2  EMHC </t>
   </si>
   <si>
-    <t xml:space="preserve">Acolyte  MAS  Reader1 Reader2 EMHC  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acolyte   Acolyte MAS MAS Reader1 Reader2 EMHC  </t>
-  </si>
-  <si>
-    <t>Reader1</t>
-  </si>
-  <si>
-    <t>Acolyte EMHC MAS Reader1 Reader2</t>
-  </si>
-  <si>
-    <t>Acolyte Reader1</t>
-  </si>
-  <si>
-    <t>Reader1 MAS</t>
-  </si>
-  <si>
-    <t>Acolyte Reader1 MAS</t>
-  </si>
-  <si>
-    <t>Acolyte Reader1 MAS Reader2</t>
+    <t>Acolyte  Acolyte MAS MAS  Reader1 Reader2  EMHC  EMHC Choir</t>
   </si>
 </sst>
 </file>
@@ -431,16 +410,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40CACF2B-DEF2-482B-B8A4-01CC748DD523}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="58.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -449,23 +428,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>45221.354166666664</v>
+        <v>45325.25</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45221.416666666664</v>
+        <v>45326.354166666664</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45228.354166666664</v>
+        <v>45326.416666666664</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -473,31 +452,31 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45228.416666666664</v>
+        <v>45332.25</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45235.354166666664</v>
+        <v>45333.354166666664</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45235.416666666664</v>
+        <v>45333.416666666664</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45265.416666666664</v>
+        <v>45339.25</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -505,23 +484,23 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45272.416666666664</v>
+        <v>45340.354166666664</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45279.416666666664</v>
+        <v>45340.416666666664</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45286.416666666664</v>
+        <v>45346.25</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
@@ -529,146 +508,251 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45293.416666666664</v>
+        <v>45347.354166666664</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45300.416666666664</v>
+        <v>45347.416666666664</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45307.416666666664</v>
+        <v>45353.25</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>45276.416666666664</v>
+        <v>45354.354166666664</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>45312.416666666664</v>
+        <v>45354.416666666664</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>45318.416666666664</v>
+        <v>45360.25</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>45325.416666666664</v>
+        <v>45361.354166666664</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>45332.416666666664</v>
+        <v>45361.416666666664</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>45339.416666666664</v>
+        <v>45367.25</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>45349.416666666664</v>
+        <v>45368.354166666664</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>45353.416666666664</v>
+        <v>45368.416666666664</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>45363.416666666664</v>
+        <v>45374.25</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>45373.416666666664</v>
+        <v>45375.354166666664</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>45388.416666666664</v>
+        <v>45375.416666666664</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>45389.354166666664</v>
+        <v>45381.25</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>45396.416666666664</v>
+        <v>45382.354166666664</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>45396.354166666664</v>
+        <v>45382.416666666664</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1">
+        <v>45388.25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>45389.354166666664</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>45389.416666666664</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5" xr:uid="{2F6D5B08-F73D-482A-8357-BE3AF89FA3CD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E31" xr:uid="{2F6D5B08-F73D-482A-8357-BE3AF89FA3CD}">
       <formula1>Functions</formula1>
     </dataValidation>
   </dataValidations>
